--- a/static/recursos/data-h.xlsx
+++ b/static/recursos/data-h.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felipe Calvo\Online\#Unacademia\Maestría en Estadística\Extension, cursos cortos y charlas\Diplomado Análisis de Datos UNAL 2019-2\Investigacion\P4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128FAD4-52EA-4C7C-B1D8-FBD8A4E1F4C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5455A2C-9ECE-49F5-989B-9977FF7414BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B2196DC9-BE46-4E69-9E8C-6A0401AF0F03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B2196DC9-BE46-4E69-9E8C-6A0401AF0F03}"/>
   </bookViews>
   <sheets>
     <sheet name="mod" sheetId="1" r:id="rId1"/>
     <sheet name="hsb2" sheetId="2" r:id="rId2"/>
+    <sheet name="anova" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="50">
   <si>
     <t>sexo</t>
   </si>
@@ -165,12 +166,30 @@
   <si>
     <t>socst</t>
   </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>CEMENTO 1</t>
+  </si>
+  <si>
+    <t>CEMENTO 2</t>
+  </si>
+  <si>
+    <t>CEMENTO 3</t>
+  </si>
+  <si>
+    <t>CEMENTO 4</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +201,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7091,7 +7116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E687F5E-B632-43C4-A3A2-92033E004FB2}">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14133,4 +14158,510 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B16FE0-F11E-4E05-AA92-F12649BD056E}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>3.2141799999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>4.7808700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>10.2425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>6.5589300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>6.8138199999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>6.2698400000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>5.8781699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>6.7236799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>6.3786300000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>3.12093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>8.5856600000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>5.6139400000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>6.7454400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>8.75352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>4.9580500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>2.1106699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>3.4286699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>5.2316000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>3.8203399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>8.1908899999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>4.9238600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>3.2235100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>3.4100199999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>5.54556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>3.85764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>5.5642100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>5.4274300000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>5.1911899999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>3.0805199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>2.7852100000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>15.340400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>13.522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>12.9655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>13.4505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>11.6755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>8.4364600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>11.327400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8.4955200000000008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>12.076499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>13.2204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>16.863600000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>9.6891800000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>7.9484199999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>17.963999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>17.799199999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>18.5608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>16.559000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>15.489599999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>9.9969199999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>19.266500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>12.828799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>14.861700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>14.376799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>12.4651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>11.087999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57">
+        <v>14.302199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <v>13.0464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59">
+        <v>15.063800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>11.523199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61">
+        <v>15.896800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>